--- a/output/fit_clients/fit_round_141.xlsx
+++ b/output/fit_clients/fit_round_141.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2075578422.570613</v>
+        <v>2401655208.68398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09941916660368304</v>
+        <v>0.1006208148171952</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03866271348663695</v>
+        <v>0.043667194732335</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1037789217.033313</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2517958970.697884</v>
+        <v>2499964101.82773</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1277562359214749</v>
+        <v>0.1634522531784829</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04291391046232347</v>
+        <v>0.04185706489750792</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1258979605.578199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3206750278.615823</v>
+        <v>3570031482.264036</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1060593242126654</v>
+        <v>0.1545546966969813</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02794687352781271</v>
+        <v>0.03081317935052955</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>51</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1603375097.248338</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3748973066.908251</v>
+        <v>3825609780.208168</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1067748247549665</v>
+        <v>0.07292973033047248</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04609337337544753</v>
+        <v>0.03468967395468029</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1874486553.750082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2814213648.435905</v>
+        <v>2763949308.172228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1376285461651232</v>
+        <v>0.1485209142872647</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05075023559492099</v>
+        <v>0.03984767612948807</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1407106765.638187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2188950183.3584</v>
+        <v>2729239970.9684</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0935405525567678</v>
+        <v>0.06314485769981959</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04348849703793251</v>
+        <v>0.04134194877913071</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1094475134.613925</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3410252418.364645</v>
+        <v>2855229443.596636</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2167654613663691</v>
+        <v>0.1933249331863197</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02904423593831988</v>
+        <v>0.02310596924937864</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1705126308.588242</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2078493594.678812</v>
+        <v>1716827286.890093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1797801020537418</v>
+        <v>0.1313658735283056</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02551475584201785</v>
+        <v>0.02503429592314989</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1039246813.018857</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5590812703.412663</v>
+        <v>3981825212.507336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1959145881654429</v>
+        <v>0.162662339008947</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03342036520649476</v>
+        <v>0.03378700316766799</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>59</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2795406496.743717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3629717390.270321</v>
+        <v>4275388853.192783</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1168131519895662</v>
+        <v>0.1342957945019085</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0408222311769899</v>
+        <v>0.04990860512994298</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>58</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1814858681.956796</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2343808702.566383</v>
+        <v>2297830840.368239</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1332718607931223</v>
+        <v>0.1846974547450439</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04434562962281337</v>
+        <v>0.03548091261463528</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1171904309.150769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3572725840.987909</v>
+        <v>3917010802.772501</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07459002373265397</v>
+        <v>0.08932370451385745</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02473447003763456</v>
+        <v>0.02665119520786587</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>48</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1786362997.093584</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2526231326.996885</v>
+        <v>2954120259.837085</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1667211018679087</v>
+        <v>0.1155482906933323</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04181316734067917</v>
+        <v>0.03751014193691433</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>45</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1263115732.197665</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1671099968.347235</v>
+        <v>1598269679.221061</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06730353970558041</v>
+        <v>0.102852737502581</v>
       </c>
       <c r="G15" t="n">
-        <v>0.039154897321421</v>
+        <v>0.03918645546841954</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>835550108.4227066</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2388108291.106624</v>
+        <v>2576336867.654662</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07170201697811551</v>
+        <v>0.09967788591161089</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03140716919489426</v>
+        <v>0.047677499976274</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1194054186.323871</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4970514961.480476</v>
+        <v>4065234453.354773</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1406552219020918</v>
+        <v>0.1145079166141734</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05222753728200556</v>
+        <v>0.04155053175797491</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>41</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2485257467.340414</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3262303092.040247</v>
+        <v>2829693751.926463</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1846571106452353</v>
+        <v>0.1390198579659892</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02682589909945205</v>
+        <v>0.02649251130251436</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>46</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1631151557.298935</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1081795114.216445</v>
+        <v>1351418690.57696</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1830501870032138</v>
+        <v>0.1663909898827472</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02198873958019548</v>
+        <v>0.02246718028109474</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>540897606.2068367</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2342820754.60835</v>
+        <v>2790838535.835352</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1423990635860234</v>
+        <v>0.1047275621751891</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02885885420430905</v>
+        <v>0.02690464422806275</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1171410367.09245</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2263584604.281516</v>
+        <v>1910732280.029952</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08402411130087481</v>
+        <v>0.09116423820016005</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0298474080363522</v>
+        <v>0.03825253238132264</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1131792312.862368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2632911642.126126</v>
+        <v>2445988400.877106</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09518441040812615</v>
+        <v>0.09846392012367572</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0346964687580126</v>
+        <v>0.04576204637210563</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1316455904.538026</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1315043905.963334</v>
+        <v>1033374435.577491</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1849001996145638</v>
+        <v>0.1525646795475264</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04864757528160381</v>
+        <v>0.0332212564127919</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>657521970.0386226</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3991589080.342464</v>
+        <v>2715517656.751125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1192858865269625</v>
+        <v>0.1466501947044762</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03505439858179634</v>
+        <v>0.03739085124026825</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1995794508.679234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>989806407.6498307</v>
+        <v>1343375778.424715</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1043175410353219</v>
+        <v>0.1076226256906398</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02247613494740589</v>
+        <v>0.02772349029092845</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>494903270.1133718</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1156611351.573363</v>
+        <v>1280411823.286458</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1034858818627633</v>
+        <v>0.0916298929187214</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02991282347249711</v>
+        <v>0.03538854522054022</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>578305686.1644577</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3088765347.535153</v>
+        <v>4211926672.123379</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1367103941874564</v>
+        <v>0.1253694921347305</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02618688888236035</v>
+        <v>0.02404656864958012</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1544382729.166022</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3481023800.567355</v>
+        <v>3755001527.762634</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1311603032615181</v>
+        <v>0.1427239923237233</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03836610082698085</v>
+        <v>0.04008821551046511</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>46</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1740511953.23701</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3716104681.132962</v>
+        <v>4422218819.834485</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1264247746583567</v>
+        <v>0.1116752860459696</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03755825145897288</v>
+        <v>0.04567625585261947</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1858052377.052821</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1969631770.997234</v>
+        <v>1976767787.583974</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1192411284317034</v>
+        <v>0.1165160215566628</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03344014516248475</v>
+        <v>0.03015034998078912</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>984815919.44341</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1127250173.710848</v>
+        <v>1013537669.793813</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09389886872807111</v>
+        <v>0.09697498679521742</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04650355741176496</v>
+        <v>0.04358659357549777</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>563625055.3992573</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1447714304.505077</v>
+        <v>1203898880.229119</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07543893965711047</v>
+        <v>0.1013170786398862</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03638332266277287</v>
+        <v>0.03515577374334121</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>723857209.7394686</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3066389120.169765</v>
+        <v>2237094085.24699</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1267956140768379</v>
+        <v>0.1487952338012209</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05446561507769066</v>
+        <v>0.04466821918480701</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>42</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1533194550.004255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1336395879.357943</v>
+        <v>1063055928.712299</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09658746845681215</v>
+        <v>0.07346859311806234</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0192380586110481</v>
+        <v>0.01743959103548216</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>668197922.3261495</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1104358847.205116</v>
+        <v>1101065591.905511</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1122432159948626</v>
+        <v>0.1145379127162487</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03390620747253593</v>
+        <v>0.02811346725092297</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>552179419.2594199</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3254360286.447257</v>
+        <v>2987213831.861841</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1437013074410667</v>
+        <v>0.1562005751690148</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02574659670974764</v>
+        <v>0.0242229525514671</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>35</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1627180104.716968</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2694519916.673609</v>
+        <v>2775638400.310246</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1100838070976013</v>
+        <v>0.1059267274188481</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04035526969615857</v>
+        <v>0.03110659334070721</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>38</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1347260081.10336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2176022924.599019</v>
+        <v>1331412039.102743</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07409623044328056</v>
+        <v>0.1043953876010164</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02435258159654007</v>
+        <v>0.03753906220342668</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1088011416.021293</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1805904237.59668</v>
+        <v>2104702640.668778</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1461341172628654</v>
+        <v>0.1746137788669957</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03044659325625362</v>
+        <v>0.03192102544388403</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>902952142.7479919</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1536011702.677246</v>
+        <v>1704772136.969229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09949443188524371</v>
+        <v>0.1248575097427853</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04556580570221302</v>
+        <v>0.05827677740151355</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>768005808.4777091</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2136993962.810852</v>
+        <v>2151155458.784155</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1659210643211172</v>
+        <v>0.1456426303883216</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04010743792890567</v>
+        <v>0.03202580846682053</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>34</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1068497042.211791</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2829662475.924119</v>
+        <v>3486400958.024741</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1096702535326103</v>
+        <v>0.1226763494583551</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04034290017321833</v>
+        <v>0.04328079132392674</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>46</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1414831186.621076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2528861237.668514</v>
+        <v>2125798210.950511</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2026193786530938</v>
+        <v>0.1441994648615191</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02243252623559951</v>
+        <v>0.01622518720172215</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>47</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1264430664.549477</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1604291428.975025</v>
+        <v>2104861458.147328</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06631714628845554</v>
+        <v>0.06704537882307812</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02682332357562564</v>
+        <v>0.02393174604973937</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>802145741.8279649</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1887157006.07899</v>
+        <v>1556325878.212184</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1395455683006604</v>
+        <v>0.1237452431814186</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04167414046494154</v>
+        <v>0.04762930899122009</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>943578482.4735895</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5661729016.436327</v>
+        <v>4568364066.151417</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1658577442201826</v>
+        <v>0.1327056584223419</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05713776316435323</v>
+        <v>0.05178775936720664</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>50</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2830864572.845311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4648640794.47224</v>
+        <v>4346119894.250161</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1509300374410611</v>
+        <v>0.1701833645841939</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05823321122487103</v>
+        <v>0.04465056176653101</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>38</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2324320433.066732</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4151320857.967134</v>
+        <v>3391044227.735967</v>
       </c>
       <c r="F48" t="n">
-        <v>0.102328585013257</v>
+        <v>0.07441667744288286</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02650041080709946</v>
+        <v>0.03739527630420526</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2075660454.498075</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1593866004.548132</v>
+        <v>1503444515.712889</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1404160598657674</v>
+        <v>0.1894250508504433</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04148535490415515</v>
+        <v>0.02791365425295533</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>796933019.6686169</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3759661160.293398</v>
+        <v>3461672975.888844</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1254679288306234</v>
+        <v>0.1510636917299047</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04780829684285266</v>
+        <v>0.0365571162341881</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>48</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1879830585.894125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1308334529.590367</v>
+        <v>1199648218.934238</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1707559641539503</v>
+        <v>0.1452221880533896</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03357990647924469</v>
+        <v>0.03955485625561957</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>654167298.7301488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4595093956.922626</v>
+        <v>4439566668.082808</v>
       </c>
       <c r="F52" t="n">
-        <v>0.130753921735467</v>
+        <v>0.118028205594859</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05726536511471965</v>
+        <v>0.05184949531311384</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>58</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2297546999.871793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2307473033.88404</v>
+        <v>3792268036.694624</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1677625256187518</v>
+        <v>0.1974563504173079</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02681005657376217</v>
+        <v>0.03262116597563455</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1153736597.143257</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4528724254.807252</v>
+        <v>3618422892.183447</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1600391636039701</v>
+        <v>0.1378031530037906</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03701990450849808</v>
+        <v>0.0411609823867591</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>48</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2264362232.962029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4403943848.518126</v>
+        <v>3778021628.345412</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1886054911061137</v>
+        <v>0.2002757391925939</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0245589235235735</v>
+        <v>0.02776314591948575</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2201971916.93457</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1437950019.090755</v>
+        <v>1453960311.028193</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1474384408866896</v>
+        <v>0.1099443426383184</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04747186233634509</v>
+        <v>0.03572952466435435</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>718975060.9522128</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3730658261.171207</v>
+        <v>4119268868.138618</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1577622227210215</v>
+        <v>0.1249316650641885</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0257882987838595</v>
+        <v>0.02589842055720744</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>45</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1865329196.296084</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1320694943.602263</v>
+        <v>1205671856.902899</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1353511249703651</v>
+        <v>0.1221988049688061</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03026084976986589</v>
+        <v>0.03472501924551527</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>660347519.2636366</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4558107732.773081</v>
+        <v>3384873586.163179</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09460306846903632</v>
+        <v>0.08289832390257433</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03129970833325862</v>
+        <v>0.04426585509154835</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2279053815.381328</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3686567728.110435</v>
+        <v>2864179706.053273</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1765265674237524</v>
+        <v>0.182738247580618</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02494105693321567</v>
+        <v>0.03116185785513535</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1843284006.371915</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2941500804.111737</v>
+        <v>2683082740.239376</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1685740986382954</v>
+        <v>0.1769751394605069</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0279205650581451</v>
+        <v>0.02249445486375313</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>48</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1470750387.997389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1579890397.992371</v>
+        <v>1602853877.878129</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1879782699704298</v>
+        <v>0.1179919243260441</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04775540794380165</v>
+        <v>0.047758836709969</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>789945194.0212038</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4563654488.82456</v>
+        <v>4786968231.313273</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08389485880568551</v>
+        <v>0.1026014049251856</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04041919032456989</v>
+        <v>0.0297054236809234</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>41</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2281827281.590332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3732070001.320328</v>
+        <v>5048328476.077535</v>
       </c>
       <c r="F64" t="n">
-        <v>0.141710439187747</v>
+        <v>0.1711196771187438</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02171073277748522</v>
+        <v>0.02188607631235815</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>44</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1866035017.632846</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5214049947.396627</v>
+        <v>5706771684.851958</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1716200625635807</v>
+        <v>0.1655935232483391</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02050237589941542</v>
+        <v>0.02195755924060622</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>51</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2607024919.801374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5307016086.372721</v>
+        <v>5417565204.235038</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1525089002472045</v>
+        <v>0.1265923285313693</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03661958164192238</v>
+        <v>0.04700217183815798</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>41</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2653508086.738785</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3146038005.0216</v>
+        <v>2760533296.968051</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07658894666410412</v>
+        <v>0.08002334195558192</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04548692251197769</v>
+        <v>0.0465706084989136</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>46</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1573019008.37697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4485416227.297943</v>
+        <v>4875412780.024641</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1406331244755766</v>
+        <v>0.1171698818097541</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03952453757546287</v>
+        <v>0.04968985491724283</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>45</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2242708138.806434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2101034755.18048</v>
+        <v>1525380729.057722</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1607963930448254</v>
+        <v>0.1266289524886739</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05624734410932129</v>
+        <v>0.04630295736266624</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1050517395.566202</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3609602061.435233</v>
+        <v>2785466588.4447</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07734473424143538</v>
+        <v>0.06704354168320713</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04580644838321721</v>
+        <v>0.03322511934368366</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>40</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1804801047.387158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3493201555.311586</v>
+        <v>4876873771.455895</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1770946779762554</v>
+        <v>0.156980193729021</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02761530850177545</v>
+        <v>0.03264815411981145</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>51</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1746600770.810115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1851764949.641655</v>
+        <v>1817964310.756138</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08510019205345266</v>
+        <v>0.08571317660812096</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03930760167216145</v>
+        <v>0.0470047985709245</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>925882445.0431376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3494828828.087932</v>
+        <v>2805739025.374463</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06977277632608914</v>
+        <v>0.08014298554230381</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0519780318004783</v>
+        <v>0.0474503474412108</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>53</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1747414364.68699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2802650926.979887</v>
+        <v>3113906060.496563</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1516216344630704</v>
+        <v>0.1390345637437577</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02454531600117298</v>
+        <v>0.03414415000099057</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>48</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1401325545.86921</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1757201907.770041</v>
+        <v>1954143256.810822</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1573216466854263</v>
+        <v>0.1458202829770783</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03467896693539054</v>
+        <v>0.02692364257236926</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>878600940.792572</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3589594111.735126</v>
+        <v>3590549223.982871</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09584388983284217</v>
+        <v>0.08654860812637584</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03212957901816621</v>
+        <v>0.02857195090392419</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1794797023.35377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1543619642.346233</v>
+        <v>2284089548.30311</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1165328935201823</v>
+        <v>0.1492034612279425</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01932437001623932</v>
+        <v>0.02956355796428405</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>771809815.2298765</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3380572292.132205</v>
+        <v>4012407504.736495</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1363292090029334</v>
+        <v>0.09396570964044564</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03801191888806679</v>
+        <v>0.03633167982653391</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>49</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1690286156.094377</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1648311961.040657</v>
+        <v>1287160357.624063</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1292023357061425</v>
+        <v>0.1552967199077197</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03515793562731364</v>
+        <v>0.03508672075215698</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>824156040.6364287</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4543239198.087876</v>
+        <v>4251822943.075542</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1011680872426086</v>
+        <v>0.09606749101346938</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0336181015401401</v>
+        <v>0.02713450529981814</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2271619625.489516</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4021176214.774996</v>
+        <v>4919153591.001177</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09527290628691037</v>
+        <v>0.111343717192417</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03168002768342069</v>
+        <v>0.02524466026393614</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>33</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2010588071.334161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4305629269.646742</v>
+        <v>5425739303.672565</v>
       </c>
       <c r="F82" t="n">
-        <v>0.156028534942925</v>
+        <v>0.1397096941503085</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01852964566383932</v>
+        <v>0.02199624214445961</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>54</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2152814657.449691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2377841100.528742</v>
+        <v>2266624821.564822</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09787579056259257</v>
+        <v>0.1102025139258088</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02941363053753177</v>
+        <v>0.03383543433121496</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1188920582.520903</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1809365064.203563</v>
+        <v>1877179373.960872</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07709842319778049</v>
+        <v>0.1037640611127241</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03973534367889262</v>
+        <v>0.04446620531395134</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>904682564.989844</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3444630481.174426</v>
+        <v>3026909628.414191</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1794789691692621</v>
+        <v>0.1763588402167829</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04031658681040622</v>
+        <v>0.05643218721128434</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>53</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1722315349.792988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2406650243.064785</v>
+        <v>1846525329.510181</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1424613350301081</v>
+        <v>0.1184153598551927</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02587050404980058</v>
+        <v>0.02184861604431275</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1203325205.677548</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>955369509.0869362</v>
+        <v>1141877224.981392</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1321750765383915</v>
+        <v>0.1222068436046152</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0410275569102508</v>
+        <v>0.02829474403599682</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>477684747.3726919</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2741505320.452232</v>
+        <v>2742459260.74574</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1539338153041725</v>
+        <v>0.1163997442384908</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03646633546640751</v>
+        <v>0.03506314050621295</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>56</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1370752665.094426</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3326582087.465812</v>
+        <v>2599966650.829258</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1548713259146847</v>
+        <v>0.1589950668613248</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0377719497784809</v>
+        <v>0.03964412802940515</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>48</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1663291057.868951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1450104031.0568</v>
+        <v>1889208384.424703</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1127682818921424</v>
+        <v>0.1167259227624496</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03875763508380846</v>
+        <v>0.04825275858785803</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>725051985.0850033</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1387532619.834876</v>
+        <v>1605822111.800302</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1876633704063732</v>
+        <v>0.1418499823927272</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05255897506499505</v>
+        <v>0.04953110358630099</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>693766363.8016093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1994873694.944244</v>
+        <v>1863850706.2545</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09744372068323529</v>
+        <v>0.07755849807170791</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04551814352350762</v>
+        <v>0.03508084227457199</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>997436793.2131432</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4325080929.994689</v>
+        <v>3563819900.735634</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1410846724770661</v>
+        <v>0.1079086308342334</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04152467848365042</v>
+        <v>0.03922430842961541</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>44</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2162540444.533336</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2223744794.687991</v>
+        <v>1883575335.690658</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1659562890493645</v>
+        <v>0.1535961594133526</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02906438968827869</v>
+        <v>0.03684929383298358</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1111872424.748565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2496639764.589223</v>
+        <v>2409583188.941777</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1071065293758371</v>
+        <v>0.09388479963195744</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04453239795139401</v>
+        <v>0.03624947921206812</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>34</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1248319918.57779</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1518170412.627438</v>
+        <v>1661224548.010788</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1038865750010106</v>
+        <v>0.1049925253368827</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02933702487710901</v>
+        <v>0.0410999940278862</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>759085244.7088299</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5120735118.015956</v>
+        <v>3362072692.175368</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1104982768044136</v>
+        <v>0.1711700017596734</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02069105605960962</v>
+        <v>0.02730552809507979</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2560367705.466142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3281356787.527213</v>
+        <v>2837141653.106395</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1238485773244194</v>
+        <v>0.09968588571869935</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0296081868510098</v>
+        <v>0.02581507936218336</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>37</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1640678397.509884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2325430883.927878</v>
+        <v>2461812062.086942</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1057202511932758</v>
+        <v>0.1416390820609051</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0297336842531574</v>
+        <v>0.03447288322517521</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>45</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1162715378.997254</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3274257759.643988</v>
+        <v>4553062825.659739</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1591969401934627</v>
+        <v>0.1592103236352255</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02675380599829632</v>
+        <v>0.02088530089403067</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>43</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1637128892.52983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2595242884.141575</v>
+        <v>2745410416.241076</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1976499223731619</v>
+        <v>0.2005772247756551</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04986038146605353</v>
+        <v>0.04685348659037605</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>58</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1297621477.570382</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_141.xlsx
+++ b/output/fit_clients/fit_round_141.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2401655208.68398</v>
+        <v>1713217059.949764</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1006208148171952</v>
+        <v>0.07893691087042842</v>
       </c>
       <c r="G2" t="n">
-        <v>0.043667194732335</v>
+        <v>0.0445522658250149</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2499964101.82773</v>
+        <v>2174031401.11921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1634522531784829</v>
+        <v>0.1631576347703909</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04185706489750792</v>
+        <v>0.03405847506725083</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3570031482.264036</v>
+        <v>4947042907.927109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1545546966969813</v>
+        <v>0.1576500195663773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03081317935052955</v>
+        <v>0.03071909544684295</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3825609780.208168</v>
+        <v>4073025552.848388</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07292973033047248</v>
+        <v>0.07385780622807195</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03468967395468029</v>
+        <v>0.04109989402547377</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2763949308.172228</v>
+        <v>1947734649.765179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1485209142872647</v>
+        <v>0.1458474550360009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03984767612948807</v>
+        <v>0.03715051134055811</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2729239970.9684</v>
+        <v>2264448109.753835</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06314485769981959</v>
+        <v>0.06486493972499913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04134194877913071</v>
+        <v>0.03091638640021547</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2855229443.596636</v>
+        <v>2605190846.768965</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1933249331863197</v>
+        <v>0.1403044258601054</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02310596924937864</v>
+        <v>0.03331886737014542</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1716827286.890093</v>
+        <v>1980026899.606687</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1313658735283056</v>
+        <v>0.1685374779037398</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02503429592314989</v>
+        <v>0.02989679668700689</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3981825212.507336</v>
+        <v>5717556992.294702</v>
       </c>
       <c r="F10" t="n">
-        <v>0.162662339008947</v>
+        <v>0.2059010300529265</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03378700316766799</v>
+        <v>0.04875581238133494</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4275388853.192783</v>
+        <v>2591192391.709383</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1342957945019085</v>
+        <v>0.1697746295245153</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04990860512994298</v>
+        <v>0.03578404501156655</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2297830840.368239</v>
+        <v>3137241373.460167</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1846974547450439</v>
+        <v>0.1674915683563094</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03548091261463528</v>
+        <v>0.05401248351989734</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3917010802.772501</v>
+        <v>4635830735.987012</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08932370451385745</v>
+        <v>0.1000952473794908</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02665119520786587</v>
+        <v>0.02496895494043817</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2954120259.837085</v>
+        <v>3617915018.536569</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1155482906933323</v>
+        <v>0.1839841053615853</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03751014193691433</v>
+        <v>0.04357684127652292</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1598269679.221061</v>
+        <v>1233433356.165079</v>
       </c>
       <c r="F15" t="n">
-        <v>0.102852737502581</v>
+        <v>0.07653958131444244</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03918645546841954</v>
+        <v>0.04244460651440585</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2576336867.654662</v>
+        <v>2682149259.623736</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09967788591161089</v>
+        <v>0.09272641039767486</v>
       </c>
       <c r="G16" t="n">
-        <v>0.047677499976274</v>
+        <v>0.04546449175161292</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4065234453.354773</v>
+        <v>3833244672.948999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1145079166141734</v>
+        <v>0.1368954129706196</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04155053175797491</v>
+        <v>0.05067039326500201</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2829693751.926463</v>
+        <v>2578677617.377175</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1390198579659892</v>
+        <v>0.1193833816249067</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02649251130251436</v>
+        <v>0.02711722263168003</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1351418690.57696</v>
+        <v>901062893.0869802</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1663909898827472</v>
+        <v>0.1755564165034603</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02246718028109474</v>
+        <v>0.02467291630902676</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2790838535.835352</v>
+        <v>2293737088.3999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1047275621751891</v>
+        <v>0.1253057827635791</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02690464422806275</v>
+        <v>0.02815277339492032</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1910732280.029952</v>
+        <v>1887982899.847289</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09116423820016005</v>
+        <v>0.09135788970694614</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03825253238132264</v>
+        <v>0.03688141903779447</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2445988400.877106</v>
+        <v>3995386274.034983</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09846392012367572</v>
+        <v>0.09126898691844065</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04576204637210563</v>
+        <v>0.05471608265518979</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1033374435.577491</v>
+        <v>1466648536.282331</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1525646795475264</v>
+        <v>0.1808690936373681</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0332212564127919</v>
+        <v>0.05472059506591512</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2715517656.751125</v>
+        <v>3116343597.474808</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1466501947044762</v>
+        <v>0.1290384291929137</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03739085124026825</v>
+        <v>0.02804872698502505</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1343375778.424715</v>
+        <v>1459345385.66909</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1076226256906398</v>
+        <v>0.1181340290223623</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02772349029092845</v>
+        <v>0.03013631951714248</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1280411823.286458</v>
+        <v>983041271.2287199</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0916298929187214</v>
+        <v>0.09413794272749888</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03538854522054022</v>
+        <v>0.03044351745514004</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4211926672.123379</v>
+        <v>3988407627.515035</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1253694921347305</v>
+        <v>0.1063333822380467</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02404656864958012</v>
+        <v>0.02194211030811768</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3755001527.762634</v>
+        <v>3143694328.092401</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1427239923237233</v>
+        <v>0.09505552565265682</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04008821551046511</v>
+        <v>0.03029940153109085</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4422218819.834485</v>
+        <v>3696382598.781477</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1116752860459696</v>
+        <v>0.1299845628041413</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04567625585261947</v>
+        <v>0.0284167532671263</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1976767787.583974</v>
+        <v>1516067417.254066</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1165160215566628</v>
+        <v>0.1212036657799376</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03015034998078912</v>
+        <v>0.03808964484421805</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1013537669.793813</v>
+        <v>1328960320.726475</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09697498679521742</v>
+        <v>0.09903781773794854</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04358659357549777</v>
+        <v>0.04134466397295847</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1203898880.229119</v>
+        <v>1709864163.240515</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1013170786398862</v>
+        <v>0.1016046246166944</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03515577374334121</v>
+        <v>0.03108827232653143</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2237094085.24699</v>
+        <v>2492899171.500553</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1487952338012209</v>
+        <v>0.1908893079532775</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04466821918480701</v>
+        <v>0.05628993272379863</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1063055928.712299</v>
+        <v>1446204373.195651</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07346859311806234</v>
+        <v>0.08489770583383499</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01743959103548216</v>
+        <v>0.02770428808509929</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1101065591.905511</v>
+        <v>1289777329.846322</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1145379127162487</v>
+        <v>0.1113949635988132</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02811346725092297</v>
+        <v>0.03598168530927157</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2987213831.861841</v>
+        <v>2725802730.587008</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1562005751690148</v>
+        <v>0.1247539427473276</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0242229525514671</v>
+        <v>0.02223738796245172</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2775638400.310246</v>
+        <v>1802327375.154718</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1059267274188481</v>
+        <v>0.07680883602234946</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03110659334070721</v>
+        <v>0.03888165295397411</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1331412039.102743</v>
+        <v>1463437084.101797</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1043953876010164</v>
+        <v>0.1046338348406144</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03753906220342668</v>
+        <v>0.03335348882312914</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2104702640.668778</v>
+        <v>1473266501.859414</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1746137788669957</v>
+        <v>0.181962491532101</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03192102544388403</v>
+        <v>0.02416301312195444</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1704772136.969229</v>
+        <v>1281659087.601973</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1248575097427853</v>
+        <v>0.1249806195219307</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05827677740151355</v>
+        <v>0.04776630832709285</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2151155458.784155</v>
+        <v>2699610389.846798</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1456426303883216</v>
+        <v>0.1069247932191657</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03202580846682053</v>
+        <v>0.04461933456871282</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3486400958.024741</v>
+        <v>4117549242.302095</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1226763494583551</v>
+        <v>0.09939719214153762</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04328079132392674</v>
+        <v>0.04205641471328143</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2125798210.950511</v>
+        <v>2894292064.255045</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1441994648615191</v>
+        <v>0.1370574612439175</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01622518720172215</v>
+        <v>0.01627805531889473</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2104861458.147328</v>
+        <v>1817018622.249985</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06704537882307812</v>
+        <v>0.07557029877476665</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02393174604973937</v>
+        <v>0.03395292280809995</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1556325878.212184</v>
+        <v>2460280469.781138</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1237452431814186</v>
+        <v>0.1370814419725359</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04762930899122009</v>
+        <v>0.03811311184949565</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4568364066.151417</v>
+        <v>3568628804.361825</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1327056584223419</v>
+        <v>0.1129607391333278</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05178775936720664</v>
+        <v>0.04724693328667214</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4346119894.250161</v>
+        <v>4435611070.658112</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1701833645841939</v>
+        <v>0.1885925752638629</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04465056176653101</v>
+        <v>0.04938813023486079</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3391044227.735967</v>
+        <v>2934015942.599526</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07441667744288286</v>
+        <v>0.1020630124076471</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03739527630420526</v>
+        <v>0.03803956902935023</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1503444515.712889</v>
+        <v>1654876111.856917</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1894250508504433</v>
+        <v>0.1837939544513303</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02791365425295533</v>
+        <v>0.03417059667665437</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3461672975.888844</v>
+        <v>3502449951.075511</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1510636917299047</v>
+        <v>0.1728889924041263</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0365571162341881</v>
+        <v>0.03648416842329512</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1199648218.934238</v>
+        <v>929537664.1212175</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1452221880533896</v>
+        <v>0.1854576835703278</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03955485625561957</v>
+        <v>0.04304713193952615</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4439566668.082808</v>
+        <v>4594840510.184893</v>
       </c>
       <c r="F52" t="n">
-        <v>0.118028205594859</v>
+        <v>0.1031403338108961</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05184949531311384</v>
+        <v>0.04558919962342255</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3792268036.694624</v>
+        <v>3598890017.597614</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1974563504173079</v>
+        <v>0.1328746325187319</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03262116597563455</v>
+        <v>0.0344670504473389</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3618422892.183447</v>
+        <v>3401854704.33585</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1378031530037906</v>
+        <v>0.1463060360070251</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0411609823867591</v>
+        <v>0.04578136294263596</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3778021628.345412</v>
+        <v>3770373159.656891</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2002757391925939</v>
+        <v>0.1414625161875726</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02776314591948575</v>
+        <v>0.024309535414983</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1453960311.028193</v>
+        <v>1258317068.054884</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1099443426383184</v>
+        <v>0.1611182019850116</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03572952466435435</v>
+        <v>0.04108213149459952</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4119268868.138618</v>
+        <v>3473214983.768824</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1249316650641885</v>
+        <v>0.1603881093014426</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02589842055720744</v>
+        <v>0.02140709417784178</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1205671856.902899</v>
+        <v>1658545245.762976</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1221988049688061</v>
+        <v>0.1529475194706494</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03472501924551527</v>
+        <v>0.02744452025225595</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3384873586.163179</v>
+        <v>4848176431.148909</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08289832390257433</v>
+        <v>0.08146384767425097</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04426585509154835</v>
+        <v>0.03536913154594205</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2864179706.053273</v>
+        <v>3329014614.03254</v>
       </c>
       <c r="F60" t="n">
-        <v>0.182738247580618</v>
+        <v>0.1526976639339246</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03116185785513535</v>
+        <v>0.02835071210355228</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2683082740.239376</v>
+        <v>2853041001.665722</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1769751394605069</v>
+        <v>0.1257851420965634</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02249445486375313</v>
+        <v>0.02647283784404203</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1602853877.878129</v>
+        <v>2015241897.901719</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1179919243260441</v>
+        <v>0.1385097333814093</v>
       </c>
       <c r="G62" t="n">
-        <v>0.047758836709969</v>
+        <v>0.03858460755189377</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4786968231.313273</v>
+        <v>3387105522.699343</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1026014049251856</v>
+        <v>0.07649570560969958</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0297054236809234</v>
+        <v>0.04570538149326414</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5048328476.077535</v>
+        <v>4315336886.127579</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1711196771187438</v>
+        <v>0.1488896934868456</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02188607631235815</v>
+        <v>0.02778497964093385</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5706771684.851958</v>
+        <v>4473772345.202046</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1655935232483391</v>
+        <v>0.150952461191915</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02195755924060622</v>
+        <v>0.02299640517285338</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5417565204.235038</v>
+        <v>5402153257.565264</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1265923285313693</v>
+        <v>0.1208341009019943</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04700217183815798</v>
+        <v>0.03818464099755521</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2760533296.968051</v>
+        <v>3373860804.30557</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08002334195558192</v>
+        <v>0.08012902852380643</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0465706084989136</v>
+        <v>0.0428837992055975</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4875412780.024641</v>
+        <v>5006345845.440657</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1171698818097541</v>
+        <v>0.1144318513814676</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04968985491724283</v>
+        <v>0.03538280790085145</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1525380729.057722</v>
+        <v>1640525115.875049</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1266289524886739</v>
+        <v>0.1336088140053888</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04630295736266624</v>
+        <v>0.04244518366558858</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2785466588.4447</v>
+        <v>2309595645.235091</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06704354168320713</v>
+        <v>0.07520593415292189</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03322511934368366</v>
+        <v>0.03291035751522865</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4876873771.455895</v>
+        <v>3979715793.972667</v>
       </c>
       <c r="F71" t="n">
-        <v>0.156980193729021</v>
+        <v>0.1751909465433959</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03264815411981145</v>
+        <v>0.03191938248959481</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1817964310.756138</v>
+        <v>1658055315.341811</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08571317660812096</v>
+        <v>0.09630061319010291</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0470047985709245</v>
+        <v>0.04704942329938127</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2805739025.374463</v>
+        <v>3249721755.191318</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08014298554230381</v>
+        <v>0.1058451717832995</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0474503474412108</v>
+        <v>0.04352642563048355</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3113906060.496563</v>
+        <v>2854806538.930229</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1390345637437577</v>
+        <v>0.1370179387556214</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03414415000099057</v>
+        <v>0.03247941346869204</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1954143256.810822</v>
+        <v>1948916962.305241</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1458202829770783</v>
+        <v>0.1584069725346838</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02692364257236926</v>
+        <v>0.03303580877361099</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3590549223.982871</v>
+        <v>4352804636.353965</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08654860812637584</v>
+        <v>0.1212805516615679</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02857195090392419</v>
+        <v>0.02465843291648784</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2284089548.30311</v>
+        <v>1432609305.378848</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1492034612279425</v>
+        <v>0.1374664975014233</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02956355796428405</v>
+        <v>0.02881268331224952</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4012407504.736495</v>
+        <v>3495090404.162083</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09396570964044564</v>
+        <v>0.129200291154133</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03633167982653391</v>
+        <v>0.0346416419673934</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1287160357.624063</v>
+        <v>1362467149.756649</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1552967199077197</v>
+        <v>0.1484024707773197</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03508672075215698</v>
+        <v>0.03761894089915785</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4251822943.075542</v>
+        <v>4661850969.58705</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09606749101346938</v>
+        <v>0.08364347381279334</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02713450529981814</v>
+        <v>0.03660536832781836</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4919153591.001177</v>
+        <v>4837049176.460662</v>
       </c>
       <c r="F81" t="n">
-        <v>0.111343717192417</v>
+        <v>0.09498990580537961</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02524466026393614</v>
+        <v>0.02013597704905425</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5425739303.672565</v>
+        <v>3592802810.517311</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1397096941503085</v>
+        <v>0.1586473520670788</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02199624214445961</v>
+        <v>0.02061418561123151</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2266624821.564822</v>
+        <v>2381083455.157013</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1102025139258088</v>
+        <v>0.1140526561001561</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03383543433121496</v>
+        <v>0.04360530384225366</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1877179373.960872</v>
+        <v>2291366394.257264</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1037640611127241</v>
+        <v>0.09044423500628061</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04446620531395134</v>
+        <v>0.05183763772595836</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3026909628.414191</v>
+        <v>3664896801.069217</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1763588402167829</v>
+        <v>0.1565414895363833</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05643218721128434</v>
+        <v>0.05337729356443836</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1846525329.510181</v>
+        <v>2718510590.722433</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1184153598551927</v>
+        <v>0.1728813030991421</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02184861604431275</v>
+        <v>0.02020648361989225</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1141877224.981392</v>
+        <v>1252373332.415407</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1222068436046152</v>
+        <v>0.1743276645600719</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02829474403599682</v>
+        <v>0.03706650537750521</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2742459260.74574</v>
+        <v>2870098129.663222</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1163997442384908</v>
+        <v>0.1779205046824558</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03506314050621295</v>
+        <v>0.03532619624675497</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2599966650.829258</v>
+        <v>3505534909.647136</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1589950668613248</v>
+        <v>0.1248968345434557</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03964412802940515</v>
+        <v>0.02887501984512177</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1889208384.424703</v>
+        <v>1688915097.065164</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1167259227624496</v>
+        <v>0.1298692597795415</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04825275858785803</v>
+        <v>0.04088389481161144</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1605822111.800302</v>
+        <v>1464011963.804966</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1418499823927272</v>
+        <v>0.1855400535913115</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04953110358630099</v>
+        <v>0.06200431754056629</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1863850706.2545</v>
+        <v>3001230299.804737</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07755849807170791</v>
+        <v>0.1021796156805032</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03508084227457199</v>
+        <v>0.03745522591947017</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3563819900.735634</v>
+        <v>3064053192.253057</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1079086308342334</v>
+        <v>0.1149797957395421</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03922430842961541</v>
+        <v>0.03560152914209834</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1883575335.690658</v>
+        <v>1599011059.156132</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1535961594133526</v>
+        <v>0.1017477522839504</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03684929383298358</v>
+        <v>0.03345960623238019</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2409583188.941777</v>
+        <v>3036163704.549536</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09388479963195744</v>
+        <v>0.124188679199716</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03624947921206812</v>
+        <v>0.05285712329034591</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1661224548.010788</v>
+        <v>1993675903.906419</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1049925253368827</v>
+        <v>0.1417617443333379</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0410999940278862</v>
+        <v>0.02890425161628955</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3362072692.175368</v>
+        <v>3722733367.306462</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1711700017596734</v>
+        <v>0.1444901622278145</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02730552809507979</v>
+        <v>0.02443863852857423</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2837141653.106395</v>
+        <v>3838246962.160086</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09968588571869935</v>
+        <v>0.1171660802713551</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02581507936218336</v>
+        <v>0.02799954265437962</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2461812062.086942</v>
+        <v>3316870164.865277</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1416390820609051</v>
+        <v>0.09830022751886039</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03447288322517521</v>
+        <v>0.03340289169172308</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4553062825.659739</v>
+        <v>4553953467.784223</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1592103236352255</v>
+        <v>0.1689127726591772</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02088530089403067</v>
+        <v>0.02078185830537051</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2745410416.241076</v>
+        <v>2607010522.308657</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2005772247756551</v>
+        <v>0.1987041712308718</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04685348659037605</v>
+        <v>0.0352856400683302</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_141.xlsx
+++ b/output/fit_clients/fit_round_141.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1713217059.949764</v>
+        <v>1744713164.619609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07893691087042842</v>
+        <v>0.09482341752852702</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0445522658250149</v>
+        <v>0.04306673561431601</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2174031401.11921</v>
+        <v>1899658320.218758</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1631576347703909</v>
+        <v>0.1848499029175193</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03405847506725083</v>
+        <v>0.04100697625787279</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4947042907.927109</v>
+        <v>3905049185.749147</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1576500195663773</v>
+        <v>0.1291978714513997</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03071909544684295</v>
+        <v>0.02365795944858955</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>81</v>
+      </c>
+      <c r="J4" t="n">
+        <v>140</v>
+      </c>
+      <c r="K4" t="n">
+        <v>141.2877564589766</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4073025552.848388</v>
+        <v>3883867828.368124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07385780622807195</v>
+        <v>0.09681338590160184</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04109989402547377</v>
+        <v>0.04146002914878517</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>59</v>
+      </c>
+      <c r="J5" t="n">
+        <v>141</v>
+      </c>
+      <c r="K5" t="n">
+        <v>155.5594920973667</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1947734649.765179</v>
+        <v>2504792100.56995</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1458474550360009</v>
+        <v>0.1467500372927958</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03715051134055811</v>
+        <v>0.05196797423567198</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2264448109.753835</v>
+        <v>2342878505.110342</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06486493972499913</v>
+        <v>0.09046537421308944</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03091638640021547</v>
+        <v>0.03908928387636041</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2605190846.768965</v>
+        <v>3745558137.938633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1403044258601054</v>
+        <v>0.1467022198499181</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03331886737014542</v>
+        <v>0.02560984092024306</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>141</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1980026899.606687</v>
+        <v>1875141084.328589</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1685374779037398</v>
+        <v>0.1641162812676268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02989679668700689</v>
+        <v>0.03258516140606096</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5717556992.294702</v>
+        <v>5027483080.937972</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2059010300529265</v>
+        <v>0.1880522105885253</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04875581238133494</v>
+        <v>0.042644815473972</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>129</v>
+      </c>
+      <c r="J10" t="n">
+        <v>141</v>
+      </c>
+      <c r="K10" t="n">
+        <v>156.2291981382773</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2591192391.709383</v>
+        <v>3104372278.169829</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1697746295245153</v>
+        <v>0.1746276944617725</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03578404501156655</v>
+        <v>0.03158824205505407</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>61</v>
+      </c>
+      <c r="J11" t="n">
+        <v>139</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3137241373.460167</v>
+        <v>3269763387.277263</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1674915683563094</v>
+        <v>0.1592639922206151</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05401248351989734</v>
+        <v>0.05397870339191375</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4635830735.987012</v>
+        <v>3470764494.93653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1000952473794908</v>
+        <v>0.07703610241849844</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02496895494043817</v>
+        <v>0.02662841627953127</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>69</v>
+      </c>
+      <c r="J13" t="n">
+        <v>140</v>
+      </c>
+      <c r="K13" t="n">
+        <v>110.4874346550554</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3617915018.536569</v>
+        <v>3064376522.828048</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1839841053615853</v>
+        <v>0.17396822520427</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04357684127652292</v>
+        <v>0.0351628357437154</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1233433356.165079</v>
+        <v>1644503876.914787</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07653958131444244</v>
+        <v>0.07445265824314599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04244460651440585</v>
+        <v>0.03908860051151205</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2682149259.623736</v>
+        <v>2224954629.234553</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09272641039767486</v>
+        <v>0.095044507327523</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04546449175161292</v>
+        <v>0.03762569165865889</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3833244672.948999</v>
+        <v>5075226620.520987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1368954129706196</v>
+        <v>0.1569246618502089</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05067039326500201</v>
+        <v>0.04476287305542288</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>68</v>
+      </c>
+      <c r="J17" t="n">
+        <v>140</v>
+      </c>
+      <c r="K17" t="n">
+        <v>127.9224766305091</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2578677617.377175</v>
+        <v>2828043076.950498</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1193833816249067</v>
+        <v>0.1606339471837804</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02711722263168003</v>
+        <v>0.02718986113177862</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>135</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>901062893.0869802</v>
+        <v>1323339875.265737</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1755564165034603</v>
+        <v>0.1535345464609886</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02467291630902676</v>
+        <v>0.02542160499356955</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2293737088.3999</v>
+        <v>2580951745.219511</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1253057827635791</v>
+        <v>0.1310949427800061</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02815277339492032</v>
+        <v>0.02235344438867041</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1887982899.847289</v>
+        <v>2206880887.451458</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09135788970694614</v>
+        <v>0.07032838687701258</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03688141903779447</v>
+        <v>0.03318957465362734</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3995386274.034983</v>
+        <v>3473549583.759406</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09126898691844065</v>
+        <v>0.1276899942105502</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05471608265518979</v>
+        <v>0.04638960910253433</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>36</v>
+      </c>
+      <c r="J22" t="n">
+        <v>137</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1466648536.282331</v>
+        <v>964313874.2863392</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1808690936373681</v>
+        <v>0.1461639044769383</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05472059506591512</v>
+        <v>0.04149307619699586</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3116343597.474808</v>
+        <v>3330078602.507555</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1290384291929137</v>
+        <v>0.1201124477935941</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02804872698502505</v>
+        <v>0.0288728098322274</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>41</v>
+      </c>
+      <c r="J24" t="n">
+        <v>138</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1459345385.66909</v>
+        <v>1261325830.025324</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1181340290223623</v>
+        <v>0.08367006143449675</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03013631951714248</v>
+        <v>0.02211726121191176</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>983041271.2287199</v>
+        <v>1301554206.810086</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09413794272749888</v>
+        <v>0.08022209737789569</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03044351745514004</v>
+        <v>0.02628877495304444</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3988407627.515035</v>
+        <v>3816470300.534926</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1063333822380467</v>
+        <v>0.1116452675332085</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02194211030811768</v>
+        <v>0.01667884984167533</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>55</v>
+      </c>
+      <c r="J27" t="n">
+        <v>141</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3143694328.092401</v>
+        <v>2454377796.693948</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09505552565265682</v>
+        <v>0.1008736813055337</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03029940153109085</v>
+        <v>0.0363097358825569</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="n">
+        <v>55.55606956825776</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3696382598.781477</v>
+        <v>4611145248.823938</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1299845628041413</v>
+        <v>0.1268527313272832</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0284167532671263</v>
+        <v>0.02962246602414871</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>130</v>
+      </c>
+      <c r="J29" t="n">
+        <v>141</v>
+      </c>
+      <c r="K29" t="n">
+        <v>166.4819528001724</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1516067417.254066</v>
+        <v>1885597967.672467</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1212036657799376</v>
+        <v>0.1370745628115142</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03808964484421805</v>
+        <v>0.03364476762319857</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1328960320.726475</v>
+        <v>1053318676.837073</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09903781773794854</v>
+        <v>0.07634073461498191</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04134466397295847</v>
+        <v>0.05165862105710695</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1709864163.240515</v>
+        <v>1893594255.176198</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1016046246166944</v>
+        <v>0.07475070908108557</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03108827232653143</v>
+        <v>0.03422740213208644</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2492899171.500553</v>
+        <v>2679959518.217399</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1908893079532775</v>
+        <v>0.1600879893793076</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05628993272379863</v>
+        <v>0.03898597577840654</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1446204373.195651</v>
+        <v>1420583532.846392</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08489770583383499</v>
+        <v>0.09335347877333104</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02770428808509929</v>
+        <v>0.02602255395607437</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1289777329.846322</v>
+        <v>1002327817.0823</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1113949635988132</v>
+        <v>0.07871650499390234</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03598168530927157</v>
+        <v>0.03239410021085389</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2725802730.587008</v>
+        <v>2562205609.410051</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1247539427473276</v>
+        <v>0.1339379393639855</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02223738796245172</v>
+        <v>0.02414089565766602</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1802327375.154718</v>
+        <v>2546641475.853935</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07680883602234946</v>
+        <v>0.1121368339070444</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03888165295397411</v>
+        <v>0.03812792329767343</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1463437084.101797</v>
+        <v>1864050374.030145</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1046338348406144</v>
+        <v>0.09821332441886224</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03335348882312914</v>
+        <v>0.03620120433801634</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1473266501.859414</v>
+        <v>2174625944.941241</v>
       </c>
       <c r="F39" t="n">
-        <v>0.181962491532101</v>
+        <v>0.1267105963858124</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02416301312195444</v>
+        <v>0.02443133462968864</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1281659087.601973</v>
+        <v>1098145450.099978</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1249806195219307</v>
+        <v>0.1418735581580834</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04776630832709285</v>
+        <v>0.04455241952476647</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2699610389.846798</v>
+        <v>2387877589.14001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1069247932191657</v>
+        <v>0.1132421329820587</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04461933456871282</v>
+        <v>0.03759009376899539</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4117549242.302095</v>
+        <v>2819871434.493338</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09939719214153762</v>
+        <v>0.08964954494375986</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04205641471328143</v>
+        <v>0.03469648595982793</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>52</v>
+      </c>
+      <c r="J42" t="n">
+        <v>140</v>
+      </c>
+      <c r="K42" t="n">
+        <v>76.9600567133585</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2894292064.255045</v>
+        <v>2101653374.615598</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1370574612439175</v>
+        <v>0.1747092167621984</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01627805531889473</v>
+        <v>0.02535116341971456</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1817018622.249985</v>
+        <v>1822953034.640629</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07557029877476665</v>
+        <v>0.07287277213615108</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03395292280809995</v>
+        <v>0.03711386746863963</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2460280469.781138</v>
+        <v>2086018932.617216</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1370814419725359</v>
+        <v>0.1675092314414482</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03811311184949565</v>
+        <v>0.04835624314285421</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3568628804.361825</v>
+        <v>4310550373.933578</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1129607391333278</v>
+        <v>0.1270924597613327</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04724693328667214</v>
+        <v>0.05048154721486486</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>79</v>
+      </c>
+      <c r="J46" t="n">
+        <v>141</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4435611070.658112</v>
+        <v>3718199643.377419</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1885925752638629</v>
+        <v>0.1366915357413843</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04938813023486079</v>
+        <v>0.03655093865793018</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>62</v>
+      </c>
+      <c r="J47" t="n">
+        <v>141</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2934015942.599526</v>
+        <v>3863714985.975475</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1020630124076471</v>
+        <v>0.1017039667296912</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03803956902935023</v>
+        <v>0.02997033305417122</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>58</v>
+      </c>
+      <c r="J48" t="n">
+        <v>141</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1654876111.856917</v>
+        <v>1420319398.624104</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1837939544513303</v>
+        <v>0.1881155815891286</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03417059667665437</v>
+        <v>0.03963879141259823</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3502449951.075511</v>
+        <v>3454529672.991069</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1728889924041263</v>
+        <v>0.1739372245247978</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03648416842329512</v>
+        <v>0.04039313760721733</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>139</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>929537664.1212175</v>
+        <v>1474570696.857367</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1854576835703278</v>
+        <v>0.1323746616860355</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04304713193952615</v>
+        <v>0.05429379935536482</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4594840510.184893</v>
+        <v>4747361601.625272</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1031403338108961</v>
+        <v>0.09104498834320002</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04558919962342255</v>
+        <v>0.03909830667234669</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>105</v>
+      </c>
+      <c r="J52" t="n">
+        <v>141</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3598890017.597614</v>
+        <v>3281190044.164608</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1328746325187319</v>
+        <v>0.1447653456786196</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0344670504473389</v>
+        <v>0.02460389637787022</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>137</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3401854704.33585</v>
+        <v>3655702267.228716</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1463060360070251</v>
+        <v>0.1613221992149233</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04578136294263596</v>
+        <v>0.03577016630651736</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>65</v>
+      </c>
+      <c r="J54" t="n">
+        <v>140</v>
+      </c>
+      <c r="K54" t="n">
+        <v>127.018254770617</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3770373159.656891</v>
+        <v>4800612032.405173</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1414625161875726</v>
+        <v>0.1534763219379865</v>
       </c>
       <c r="G55" t="n">
-        <v>0.024309535414983</v>
+        <v>0.02184445942597277</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>65</v>
+      </c>
+      <c r="J55" t="n">
+        <v>140</v>
+      </c>
+      <c r="K55" t="n">
+        <v>133.5462362114573</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1258317068.054884</v>
+        <v>1763204289.96698</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1611182019850116</v>
+        <v>0.1610924272011659</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04108213149459952</v>
+        <v>0.04276991698616261</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3473214983.768824</v>
+        <v>3749234582.319345</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1603881093014426</v>
+        <v>0.1314345277623955</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02140709417784178</v>
+        <v>0.01939906185248604</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>56</v>
+      </c>
+      <c r="J57" t="n">
+        <v>141</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1658545245.762976</v>
+        <v>1151697888.240864</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1529475194706494</v>
+        <v>0.1442542619042167</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02744452025225595</v>
+        <v>0.02822662968090419</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4848176431.148909</v>
+        <v>5389066973.767064</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08146384767425097</v>
+        <v>0.1135310364372538</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03536913154594205</v>
+        <v>0.04661595599091851</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>68</v>
+      </c>
+      <c r="J59" t="n">
+        <v>141</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3329014614.03254</v>
+        <v>2675865103.29215</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1526976639339246</v>
+        <v>0.1728262591969484</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02835071210355228</v>
+        <v>0.02219973495403406</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2853041001.665722</v>
+        <v>2113244679.145338</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1257851420965634</v>
+        <v>0.1320968664260301</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02647283784404203</v>
+        <v>0.02458608372148721</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2015241897.901719</v>
+        <v>1611983628.711485</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1385097333814093</v>
+        <v>0.1570352864213682</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03858460755189377</v>
+        <v>0.03065134235149029</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3387105522.699343</v>
+        <v>4329569354.300368</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07649570560969958</v>
+        <v>0.07314454172661164</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04570538149326414</v>
+        <v>0.04088653858186723</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>69</v>
+      </c>
+      <c r="J63" t="n">
+        <v>140</v>
+      </c>
+      <c r="K63" t="n">
+        <v>129.6743137978332</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4315336886.127579</v>
+        <v>5330342605.609823</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1488896934868456</v>
+        <v>0.1651412130894008</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02778497964093385</v>
+        <v>0.02768059651056382</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>70</v>
+      </c>
+      <c r="J64" t="n">
+        <v>140</v>
+      </c>
+      <c r="K64" t="n">
+        <v>135.3869822172425</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4473772345.202046</v>
+        <v>5583915539.808409</v>
       </c>
       <c r="F65" t="n">
-        <v>0.150952461191915</v>
+        <v>0.1477079851516251</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02299640517285338</v>
+        <v>0.03069285506437392</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>118</v>
+      </c>
+      <c r="J65" t="n">
+        <v>141</v>
+      </c>
+      <c r="K65" t="n">
+        <v>146.297763480374</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5402153257.565264</v>
+        <v>3860590290.579605</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1208341009019943</v>
+        <v>0.1324555529587758</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03818464099755521</v>
+        <v>0.05126641013301164</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>69</v>
+      </c>
+      <c r="J66" t="n">
+        <v>141</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3373860804.30557</v>
+        <v>2194576051.388417</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08012902852380643</v>
+        <v>0.0939532253535194</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0428837992055975</v>
+        <v>0.0464709026263485</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5006345845.440657</v>
+        <v>5317547172.03966</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1144318513814676</v>
+        <v>0.1172861963040232</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03538280790085145</v>
+        <v>0.04849890260174296</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>71</v>
+      </c>
+      <c r="J68" t="n">
+        <v>140</v>
+      </c>
+      <c r="K68" t="n">
+        <v>133.846402305111</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1640525115.875049</v>
+        <v>1795446589.757537</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1336088140053888</v>
+        <v>0.1217216828688535</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04244518366558858</v>
+        <v>0.04252555219467313</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2309595645.235091</v>
+        <v>3646111865.462828</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07520593415292189</v>
+        <v>0.06909145941066407</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03291035751522865</v>
+        <v>0.03558662917446762</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18</v>
+      </c>
+      <c r="J70" t="n">
+        <v>140</v>
+      </c>
+      <c r="K70" t="n">
+        <v>117.1207431327303</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3979715793.972667</v>
+        <v>4036842310.983698</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1751909465433959</v>
+        <v>0.1378025581783904</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03191938248959481</v>
+        <v>0.02396454331330715</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>113</v>
+      </c>
+      <c r="J71" t="n">
+        <v>140</v>
+      </c>
+      <c r="K71" t="n">
+        <v>144.2313224907243</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1658055315.341811</v>
+        <v>1970340967.589255</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09630061319010291</v>
+        <v>0.0868858835786528</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04704942329938127</v>
+        <v>0.04070512425444129</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3249721755.191318</v>
+        <v>2233453698.113079</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1058451717832995</v>
+        <v>0.07782983919643711</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04352642563048355</v>
+        <v>0.03417748971466435</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2854806538.930229</v>
+        <v>3286244911.791462</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1370179387556214</v>
+        <v>0.1385176659800253</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03247941346869204</v>
+        <v>0.03153853731413944</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>45</v>
+      </c>
+      <c r="J74" t="n">
+        <v>136</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1948916962.305241</v>
+        <v>2267310601.983151</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1584069725346838</v>
+        <v>0.154220159418776</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03303580877361099</v>
+        <v>0.03720538659191786</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4352804636.353965</v>
+        <v>3627946633.029012</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1212805516615679</v>
+        <v>0.09250874634857924</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02465843291648784</v>
+        <v>0.02829692941500483</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>64</v>
+      </c>
+      <c r="J76" t="n">
+        <v>141</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1432609305.378848</v>
+        <v>1454978983.184782</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1374664975014233</v>
+        <v>0.1360303919516645</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02881268331224952</v>
+        <v>0.03152438464039274</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3495090404.162083</v>
+        <v>3581214372.034299</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129200291154133</v>
+        <v>0.1002741128202778</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0346416419673934</v>
+        <v>0.04013845267430712</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>69</v>
+      </c>
+      <c r="J78" t="n">
+        <v>140</v>
+      </c>
+      <c r="K78" t="n">
+        <v>124.063364011719</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1362467149.756649</v>
+        <v>1896069456.88438</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1484024707773197</v>
+        <v>0.1225274727092096</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03761894089915785</v>
+        <v>0.03492864409609688</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4661850969.58705</v>
+        <v>4486671581.170922</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08364347381279334</v>
+        <v>0.06896443036320536</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03660536832781836</v>
+        <v>0.03436557598624481</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>68</v>
+      </c>
+      <c r="J80" t="n">
+        <v>141</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4837049176.460662</v>
+        <v>4852678602.022017</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09498990580537961</v>
+        <v>0.09522694656954851</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02013597704905425</v>
+        <v>0.02647923302497355</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>64</v>
+      </c>
+      <c r="J81" t="n">
+        <v>141</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3592802810.517311</v>
+        <v>5423381756.318718</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1586473520670788</v>
+        <v>0.1907238536171646</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02061418561123151</v>
+        <v>0.02783192651516921</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>101</v>
+      </c>
+      <c r="J82" t="n">
+        <v>141</v>
+      </c>
+      <c r="K82" t="n">
+        <v>150.471256335917</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2381083455.157013</v>
+        <v>1978360417.964809</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1140526561001561</v>
+        <v>0.1396511823029129</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04360530384225366</v>
+        <v>0.03692490215912578</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2291366394.257264</v>
+        <v>2086496162.490998</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09044423500628061</v>
+        <v>0.09090889857827424</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05183763772595836</v>
+        <v>0.0499378259593093</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3664896801.069217</v>
+        <v>2974074314.401668</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1565414895363833</v>
+        <v>0.1340864046028073</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05337729356443836</v>
+        <v>0.04970860988225581</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>23</v>
+      </c>
+      <c r="J85" t="n">
+        <v>140</v>
+      </c>
+      <c r="K85" t="n">
+        <v>88.48079983980548</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2718510590.722433</v>
+        <v>2079724614.34581</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1728813030991421</v>
+        <v>0.1460154886087494</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02020648361989225</v>
+        <v>0.01734628920639765</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1252373332.415407</v>
+        <v>1070006665.398093</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1743276645600719</v>
+        <v>0.1395199980115338</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03706650537750521</v>
+        <v>0.02961087991914482</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2870098129.663222</v>
+        <v>3138331548.134802</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1779205046824558</v>
+        <v>0.1245974793345388</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03532619624675497</v>
+        <v>0.03599405932726633</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3505534909.647136</v>
+        <v>3345839117.046246</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1248968345434557</v>
+        <v>0.1091429918907501</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02887501984512177</v>
+        <v>0.02924816966448163</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1688915097.065164</v>
+        <v>1368488243.649709</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1298692597795415</v>
+        <v>0.1231559594706158</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04088389481161144</v>
+        <v>0.04170905852995689</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1464011963.804966</v>
+        <v>1822604676.10029</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1855400535913115</v>
+        <v>0.1521491179742199</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06200431754056629</v>
+        <v>0.06137933999537916</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3001230299.804737</v>
+        <v>2786143599.9855</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1021796156805032</v>
+        <v>0.1019511921532951</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03745522591947017</v>
+        <v>0.03075006278673073</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3064053192.253057</v>
+        <v>3629080859.361966</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1149797957395421</v>
+        <v>0.1228749422050968</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03560152914209834</v>
+        <v>0.0352577881085231</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>63</v>
+      </c>
+      <c r="J93" t="n">
+        <v>141</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1599011059.156132</v>
+        <v>1721945477.112579</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1017477522839504</v>
+        <v>0.1461549064628286</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03345960623238019</v>
+        <v>0.02961588710529857</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3036163704.549536</v>
+        <v>2609314024.684299</v>
       </c>
       <c r="F95" t="n">
-        <v>0.124188679199716</v>
+        <v>0.1065203912664984</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05285712329034591</v>
+        <v>0.04471635453663442</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1993675903.906419</v>
+        <v>1708413272.156921</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1417617443333379</v>
+        <v>0.1175720993929591</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02890425161628955</v>
+        <v>0.0467217659512065</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3722733367.306462</v>
+        <v>4967399909.828806</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1444901622278145</v>
+        <v>0.1223677617315386</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02443863852857423</v>
+        <v>0.02135977373187437</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>67</v>
+      </c>
+      <c r="J97" t="n">
+        <v>141</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3838246962.160086</v>
+        <v>2627340041.76575</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1171660802713551</v>
+        <v>0.1069535473114204</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02799954265437962</v>
+        <v>0.03105039333893128</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>33</v>
+      </c>
+      <c r="J98" t="n">
+        <v>139</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3316870164.865277</v>
+        <v>2657446774.586502</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09830022751886039</v>
+        <v>0.1407451132721749</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03340289169172308</v>
+        <v>0.02744513867181691</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4553953467.784223</v>
+        <v>3331225787.488618</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1689127726591772</v>
+        <v>0.1558620710054972</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02078185830537051</v>
+        <v>0.01975575769466745</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>58</v>
+      </c>
+      <c r="J100" t="n">
+        <v>140</v>
+      </c>
+      <c r="K100" t="n">
+        <v>95.70466104430095</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2607010522.308657</v>
+        <v>3563642323.79704</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1987041712308718</v>
+        <v>0.2146659516567123</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0352856400683302</v>
+        <v>0.04490775247101284</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>141</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
